--- a/data/pca/factorExposure/factorExposure_2008-12-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-26.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02014171288926717</v>
+        <v>-0.01846333435660237</v>
       </c>
       <c r="C2">
-        <v>-0.010340371778445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01254745453677452</v>
+      </c>
+      <c r="D2">
+        <v>0.01253699990707238</v>
+      </c>
+      <c r="E2">
+        <v>0.01638528735408573</v>
+      </c>
+      <c r="F2">
+        <v>-0.004874532841560331</v>
+      </c>
+      <c r="G2">
+        <v>-0.01801930886897556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08017835375246218</v>
+        <v>-0.08327200246377046</v>
       </c>
       <c r="C4">
-        <v>-0.08420445694252732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08711888244946919</v>
+      </c>
+      <c r="D4">
+        <v>-0.05971909860568926</v>
+      </c>
+      <c r="E4">
+        <v>0.03300918046120332</v>
+      </c>
+      <c r="F4">
+        <v>-0.02202350853708032</v>
+      </c>
+      <c r="G4">
+        <v>-0.02329281763985319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004386153717397247</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001502978441401924</v>
+      </c>
+      <c r="D5">
+        <v>-0.0003889859374122601</v>
+      </c>
+      <c r="E5">
+        <v>-0.005496503448224145</v>
+      </c>
+      <c r="F5">
+        <v>-0.002724702576935835</v>
+      </c>
+      <c r="G5">
+        <v>0.005430943335146346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1691313202977078</v>
+        <v>-0.1707909858538728</v>
       </c>
       <c r="C6">
-        <v>0.01934940372868765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.009475687629742621</v>
+      </c>
+      <c r="D6">
+        <v>-0.06459334799943792</v>
+      </c>
+      <c r="E6">
+        <v>-0.06369708726904723</v>
+      </c>
+      <c r="F6">
+        <v>-0.02636665142472853</v>
+      </c>
+      <c r="G6">
+        <v>0.01457032429781545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05263653205955706</v>
+        <v>-0.0545737856445338</v>
       </c>
       <c r="C7">
-        <v>-0.05599181480025676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06005865561013743</v>
+      </c>
+      <c r="D7">
+        <v>-0.06773308544908348</v>
+      </c>
+      <c r="E7">
+        <v>0.07350859953971768</v>
+      </c>
+      <c r="F7">
+        <v>0.005395563367918489</v>
+      </c>
+      <c r="G7">
+        <v>-0.06809203722945108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0474414903137522</v>
+        <v>-0.04609198529449191</v>
       </c>
       <c r="C8">
-        <v>-0.05271983182916382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05232688622471281</v>
+      </c>
+      <c r="D8">
+        <v>0.01565982359578301</v>
+      </c>
+      <c r="E8">
+        <v>0.03575846037170868</v>
+      </c>
+      <c r="F8">
+        <v>0.01095387297442572</v>
+      </c>
+      <c r="G8">
+        <v>-0.002230842814539978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05739576700637086</v>
+        <v>-0.0621904546661276</v>
       </c>
       <c r="C9">
-        <v>-0.0923747788763159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09325687107353167</v>
+      </c>
+      <c r="D9">
+        <v>-0.09068195082069051</v>
+      </c>
+      <c r="E9">
+        <v>0.05014569871638819</v>
+      </c>
+      <c r="F9">
+        <v>-0.007693035627038432</v>
+      </c>
+      <c r="G9">
+        <v>0.0009829944998934672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1179672403267104</v>
+        <v>-0.1037926522532741</v>
       </c>
       <c r="C10">
-        <v>0.1463559225583232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1332314645568408</v>
+      </c>
+      <c r="D10">
+        <v>0.09577866669210199</v>
+      </c>
+      <c r="E10">
+        <v>0.0549840442574254</v>
+      </c>
+      <c r="F10">
+        <v>0.02637126093096504</v>
+      </c>
+      <c r="G10">
+        <v>0.01409948243104514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07858896380466204</v>
+        <v>-0.07590882773415163</v>
       </c>
       <c r="C11">
-        <v>-0.1362228605262117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1353749579983847</v>
+      </c>
+      <c r="D11">
+        <v>-0.05210109091922385</v>
+      </c>
+      <c r="E11">
+        <v>0.06458699336431133</v>
+      </c>
+      <c r="F11">
+        <v>-0.00288849856611306</v>
+      </c>
+      <c r="G11">
+        <v>0.01101954083490807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07939527614929973</v>
+        <v>-0.07553686213964303</v>
       </c>
       <c r="C12">
-        <v>-0.1647355180857838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1604417612513287</v>
+      </c>
+      <c r="D12">
+        <v>-0.05736847660939459</v>
+      </c>
+      <c r="E12">
+        <v>0.06603966216373951</v>
+      </c>
+      <c r="F12">
+        <v>0.005016190185030318</v>
+      </c>
+      <c r="G12">
+        <v>-0.01569222632636947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.03906974010948547</v>
+        <v>-0.04068852980927681</v>
       </c>
       <c r="C13">
-        <v>-0.07015645697945601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.0750868928196597</v>
+      </c>
+      <c r="D13">
+        <v>-0.03820424533662133</v>
+      </c>
+      <c r="E13">
+        <v>0.07391364766381735</v>
+      </c>
+      <c r="F13">
+        <v>0.008674448764209664</v>
+      </c>
+      <c r="G13">
+        <v>-0.0268261367031517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02100928314087559</v>
+        <v>-0.02355225929280026</v>
       </c>
       <c r="C14">
-        <v>-0.04970770017996494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.051196706619559</v>
+      </c>
+      <c r="D14">
+        <v>-0.04621063390150486</v>
+      </c>
+      <c r="E14">
+        <v>0.06925399127436824</v>
+      </c>
+      <c r="F14">
+        <v>0.003027009263804761</v>
+      </c>
+      <c r="G14">
+        <v>0.01444686770781855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03342822221091762</v>
+        <v>-0.0332355444362679</v>
       </c>
       <c r="C15">
-        <v>-0.06508917814143657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.06259209868823963</v>
+      </c>
+      <c r="D15">
+        <v>-0.04712945967013712</v>
+      </c>
+      <c r="E15">
+        <v>0.01787802555430368</v>
+      </c>
+      <c r="F15">
+        <v>0.01962289102256021</v>
+      </c>
+      <c r="G15">
+        <v>-0.01397976608424423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05538926084242974</v>
+        <v>-0.05417971865659999</v>
       </c>
       <c r="C16">
-        <v>-0.1580932823605253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1567810064183117</v>
+      </c>
+      <c r="D16">
+        <v>-0.05436741696502737</v>
+      </c>
+      <c r="E16">
+        <v>0.05278931202932478</v>
+      </c>
+      <c r="F16">
+        <v>-0.02003867437627921</v>
+      </c>
+      <c r="G16">
+        <v>0.02019425259878163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.007205399331873173</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.005372842013181896</v>
+      </c>
+      <c r="D17">
+        <v>0.003726633942590592</v>
+      </c>
+      <c r="E17">
+        <v>-0.01000118335722779</v>
+      </c>
+      <c r="F17">
+        <v>0.008780670419400309</v>
+      </c>
+      <c r="G17">
+        <v>0.00601380976090989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04488394178208244</v>
+        <v>-0.05523681302571436</v>
       </c>
       <c r="C18">
-        <v>-0.0540203253822563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04961637919136971</v>
+      </c>
+      <c r="D18">
+        <v>0.004057956904363965</v>
+      </c>
+      <c r="E18">
+        <v>-0.05971909124472468</v>
+      </c>
+      <c r="F18">
+        <v>-0.002388955650097984</v>
+      </c>
+      <c r="G18">
+        <v>0.01074876581561041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05751527844703224</v>
+        <v>-0.05674656397107442</v>
       </c>
       <c r="C20">
-        <v>-0.1063098612778848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.1033156577025909</v>
+      </c>
+      <c r="D20">
+        <v>-0.07413367661531614</v>
+      </c>
+      <c r="E20">
+        <v>0.05651584990388946</v>
+      </c>
+      <c r="F20">
+        <v>0.003259068370620195</v>
+      </c>
+      <c r="G20">
+        <v>-0.001146948480083955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04269461094861709</v>
+        <v>-0.04453675016999838</v>
       </c>
       <c r="C21">
-        <v>-0.06981077773227602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06573939167273068</v>
+      </c>
+      <c r="D21">
+        <v>-0.0259023945932274</v>
+      </c>
+      <c r="E21">
+        <v>0.054354582209392</v>
+      </c>
+      <c r="F21">
+        <v>-0.002797141316268813</v>
+      </c>
+      <c r="G21">
+        <v>-0.02247209960452099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04477480361643336</v>
+        <v>-0.04493377935546888</v>
       </c>
       <c r="C22">
-        <v>-0.03700413014745565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04053777788940207</v>
+      </c>
+      <c r="D22">
+        <v>0.09926780135244134</v>
+      </c>
+      <c r="E22">
+        <v>-0.05662211642991722</v>
+      </c>
+      <c r="F22">
+        <v>-0.1099116646377068</v>
+      </c>
+      <c r="G22">
+        <v>0.1154705083550128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04478464399227707</v>
+        <v>-0.04494236400181047</v>
       </c>
       <c r="C23">
-        <v>-0.03699780319069992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04053223381917667</v>
+      </c>
+      <c r="D23">
+        <v>0.09930861819682769</v>
+      </c>
+      <c r="E23">
+        <v>-0.05662130552155586</v>
+      </c>
+      <c r="F23">
+        <v>-0.1099086859545895</v>
+      </c>
+      <c r="G23">
+        <v>0.1155361173627374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0649306305465546</v>
+        <v>-0.06338894862747059</v>
       </c>
       <c r="C24">
-        <v>-0.1423917996149735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.139502603187577</v>
+      </c>
+      <c r="D24">
+        <v>-0.05900794110431471</v>
+      </c>
+      <c r="E24">
+        <v>0.0618468218127623</v>
+      </c>
+      <c r="F24">
+        <v>-0.007627628499157295</v>
+      </c>
+      <c r="G24">
+        <v>0.0005535042388215043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07103221537881257</v>
+        <v>-0.06847134064861747</v>
       </c>
       <c r="C25">
-        <v>-0.1283650546957811</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1262819779883172</v>
+      </c>
+      <c r="D25">
+        <v>-0.04752106020290782</v>
+      </c>
+      <c r="E25">
+        <v>0.08038243226349059</v>
+      </c>
+      <c r="F25">
+        <v>0.01861174150199266</v>
+      </c>
+      <c r="G25">
+        <v>-0.02823199795683283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05746437190308502</v>
+        <v>-0.06143291097358562</v>
       </c>
       <c r="C26">
-        <v>-0.07309986991661839</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07700413704510499</v>
+      </c>
+      <c r="D26">
+        <v>-0.02336960739594251</v>
+      </c>
+      <c r="E26">
+        <v>0.0760325627105071</v>
+      </c>
+      <c r="F26">
+        <v>0.01282310108541869</v>
+      </c>
+      <c r="G26">
+        <v>-0.01416121669872924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1740086413114673</v>
+        <v>-0.177684261605527</v>
       </c>
       <c r="C28">
-        <v>0.2257136047296583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2258785455542804</v>
+      </c>
+      <c r="D28">
+        <v>-8.709581266081101e-05</v>
+      </c>
+      <c r="E28">
+        <v>0.1539249322888871</v>
+      </c>
+      <c r="F28">
+        <v>0.05346583260919686</v>
+      </c>
+      <c r="G28">
+        <v>-0.01413918718414323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02494444017562085</v>
+        <v>-0.02694683327653771</v>
       </c>
       <c r="C29">
-        <v>-0.05596619173116976</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05447897435019234</v>
+      </c>
+      <c r="D29">
+        <v>-0.01115601749150292</v>
+      </c>
+      <c r="E29">
+        <v>0.0684891800209675</v>
+      </c>
+      <c r="F29">
+        <v>0.0004241949585101005</v>
+      </c>
+      <c r="G29">
+        <v>0.01318454994725987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03185456861505517</v>
+        <v>-0.03454610979825503</v>
       </c>
       <c r="C30">
-        <v>-0.06455093155499203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07170911055670465</v>
+      </c>
+      <c r="D30">
+        <v>-0.1343093996119802</v>
+      </c>
+      <c r="E30">
+        <v>0.06595338081637316</v>
+      </c>
+      <c r="F30">
+        <v>0.04688995720472535</v>
+      </c>
+      <c r="G30">
+        <v>-0.03749255248784764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05392689210178276</v>
+        <v>-0.05307426852002024</v>
       </c>
       <c r="C31">
-        <v>-0.03749204508350634</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03931810149556974</v>
+      </c>
+      <c r="D31">
+        <v>-0.003684610794205571</v>
+      </c>
+      <c r="E31">
+        <v>0.01812745243919761</v>
+      </c>
+      <c r="F31">
+        <v>-0.0484324349087288</v>
+      </c>
+      <c r="G31">
+        <v>0.01955756201937162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0423724130141695</v>
+        <v>-0.04616340845180859</v>
       </c>
       <c r="C32">
-        <v>-0.05901005090844255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05594844971046083</v>
+      </c>
+      <c r="D32">
+        <v>-0.01599437291732153</v>
+      </c>
+      <c r="E32">
+        <v>0.001832710255857522</v>
+      </c>
+      <c r="F32">
+        <v>0.0180055441921386</v>
+      </c>
+      <c r="G32">
+        <v>-0.01432868842621821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07695522750953114</v>
+        <v>-0.08102081143947652</v>
       </c>
       <c r="C33">
-        <v>-0.1151009546926998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1236948229398609</v>
+      </c>
+      <c r="D33">
+        <v>-0.0700805649002967</v>
+      </c>
+      <c r="E33">
+        <v>0.0618621409304002</v>
+      </c>
+      <c r="F33">
+        <v>-0.01505267983743442</v>
+      </c>
+      <c r="G33">
+        <v>0.02600664056044068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05294126329665687</v>
+        <v>-0.05200109098371136</v>
       </c>
       <c r="C34">
-        <v>-0.1324039997833325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1312061009818826</v>
+      </c>
+      <c r="D34">
+        <v>-0.08918311611165847</v>
+      </c>
+      <c r="E34">
+        <v>0.06149299210466715</v>
+      </c>
+      <c r="F34">
+        <v>0.02089707028957519</v>
+      </c>
+      <c r="G34">
+        <v>0.03003289398278285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.0271933871901023</v>
+        <v>-0.02969597283396954</v>
       </c>
       <c r="C35">
-        <v>-0.02123817236829741</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02347747757204573</v>
+      </c>
+      <c r="D35">
+        <v>-0.009368198178588532</v>
+      </c>
+      <c r="E35">
+        <v>0.02109062219481656</v>
+      </c>
+      <c r="F35">
+        <v>0.01409474232636405</v>
+      </c>
+      <c r="G35">
+        <v>0.02227525153877513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02557604788645715</v>
+        <v>-0.02775608055059049</v>
       </c>
       <c r="C36">
-        <v>-0.05602946010370456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05478986401663548</v>
+      </c>
+      <c r="D36">
+        <v>-0.05837312967678191</v>
+      </c>
+      <c r="E36">
+        <v>-0.003795677657196443</v>
+      </c>
+      <c r="F36">
+        <v>0.0241332733738924</v>
+      </c>
+      <c r="G36">
+        <v>0.08564673940760302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005338303651520848</v>
+        <v>-0.004161423144240853</v>
       </c>
       <c r="C37">
-        <v>0.0005009632026558564</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.007917420988144349</v>
+      </c>
+      <c r="D37">
+        <v>-0.002063005502144233</v>
+      </c>
+      <c r="E37">
+        <v>0.01109555164265667</v>
+      </c>
+      <c r="F37">
+        <v>-0.003109906724177682</v>
+      </c>
+      <c r="G37">
+        <v>-0.003648030895909237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07970663836811048</v>
+        <v>-0.07477980119607709</v>
       </c>
       <c r="C39">
-        <v>-0.1566530961338707</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1501625436860072</v>
+      </c>
+      <c r="D39">
+        <v>-0.02450415696912286</v>
+      </c>
+      <c r="E39">
+        <v>0.12359929679617</v>
+      </c>
+      <c r="F39">
+        <v>-0.03784337411490597</v>
+      </c>
+      <c r="G39">
+        <v>-0.01412028227185407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04990610129485953</v>
+        <v>-0.05231321472666392</v>
       </c>
       <c r="C40">
-        <v>-0.07343360443691063</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.07970605100235428</v>
+      </c>
+      <c r="D40">
+        <v>-0.011162768067485</v>
+      </c>
+      <c r="E40">
+        <v>0.04093817748948325</v>
+      </c>
+      <c r="F40">
+        <v>0.04458813332437157</v>
+      </c>
+      <c r="G40">
+        <v>0.009322165799166351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02964796743930189</v>
+        <v>-0.02963445394645387</v>
       </c>
       <c r="C41">
-        <v>-0.02440769509051282</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02558749766747885</v>
+      </c>
+      <c r="D41">
+        <v>0.01027812603933225</v>
+      </c>
+      <c r="E41">
+        <v>-0.01178449449590817</v>
+      </c>
+      <c r="F41">
+        <v>0.01077394857714901</v>
+      </c>
+      <c r="G41">
+        <v>0.002218134945626907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04370763922381952</v>
+        <v>-0.04223321188252233</v>
       </c>
       <c r="C43">
-        <v>-0.04261799751185517</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03931900519588968</v>
+      </c>
+      <c r="D43">
+        <v>0.01363529349321515</v>
+      </c>
+      <c r="E43">
+        <v>0.0162500528819918</v>
+      </c>
+      <c r="F43">
+        <v>-0.02653077343402089</v>
+      </c>
+      <c r="G43">
+        <v>0.03575552401543324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05660314065721789</v>
+        <v>-0.06088594299994221</v>
       </c>
       <c r="C44">
-        <v>-0.08745686530959106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.08985068907556096</v>
+      </c>
+      <c r="D44">
+        <v>-0.292464740245694</v>
+      </c>
+      <c r="E44">
+        <v>0.08468354701140447</v>
+      </c>
+      <c r="F44">
+        <v>0.1036321125199631</v>
+      </c>
+      <c r="G44">
+        <v>0.1389632626598918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.000615698109540916</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0009576747784677002</v>
+      </c>
+      <c r="D45">
+        <v>-1.585342381375146e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0008693883742541229</v>
+      </c>
+      <c r="F45">
+        <v>-0.004403044680045659</v>
+      </c>
+      <c r="G45">
+        <v>-0.00453979880194706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02860025562590977</v>
+        <v>-0.02991351576577096</v>
       </c>
       <c r="C46">
-        <v>-0.04551460590723336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.04158257648872189</v>
+      </c>
+      <c r="D46">
+        <v>-0.003189264083773331</v>
+      </c>
+      <c r="E46">
+        <v>0.06249288982530177</v>
+      </c>
+      <c r="F46">
+        <v>-0.04046526114662512</v>
+      </c>
+      <c r="G46">
+        <v>0.01516629554849728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05644434452728902</v>
+        <v>-0.05403641985273305</v>
       </c>
       <c r="C47">
-        <v>-0.04343032769945342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.04197532148610944</v>
+      </c>
+      <c r="D47">
+        <v>0.03031530120986188</v>
+      </c>
+      <c r="E47">
+        <v>-0.01526483185055963</v>
+      </c>
+      <c r="F47">
+        <v>-0.0619066961606491</v>
+      </c>
+      <c r="G47">
+        <v>0.03317578078015641</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04706885577599389</v>
+        <v>-0.04891322991105227</v>
       </c>
       <c r="C48">
-        <v>-0.07279107513890069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.07201287255145503</v>
+      </c>
+      <c r="D48">
+        <v>-0.03576468054244299</v>
+      </c>
+      <c r="E48">
+        <v>0.0586235791886369</v>
+      </c>
+      <c r="F48">
+        <v>-0.002509547720336388</v>
+      </c>
+      <c r="G48">
+        <v>-0.03625054887591619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1840538429626143</v>
+        <v>-0.1907685111594816</v>
       </c>
       <c r="C49">
-        <v>0.02861439549072248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.02350063897128151</v>
+      </c>
+      <c r="D49">
+        <v>-0.03076434047829466</v>
+      </c>
+      <c r="E49">
+        <v>-0.0153726794173062</v>
+      </c>
+      <c r="F49">
+        <v>0.04776303890784132</v>
+      </c>
+      <c r="G49">
+        <v>-0.07110609194632678</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05326987650888725</v>
+        <v>-0.05314065358948893</v>
       </c>
       <c r="C50">
-        <v>-0.03648311340046891</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.0390426884385506</v>
+      </c>
+      <c r="D50">
+        <v>-0.01905310585904853</v>
+      </c>
+      <c r="E50">
+        <v>0.008675910506330365</v>
+      </c>
+      <c r="F50">
+        <v>-0.04230605635692421</v>
+      </c>
+      <c r="G50">
+        <v>0.007431707135829149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1410051718246937</v>
+        <v>-0.1360920359736188</v>
       </c>
       <c r="C52">
-        <v>-0.03558015886774881</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.03381184577269342</v>
+      </c>
+      <c r="D52">
+        <v>-0.0429539796108051</v>
+      </c>
+      <c r="E52">
+        <v>-0.08538390681179941</v>
+      </c>
+      <c r="F52">
+        <v>-0.08923069524556916</v>
+      </c>
+      <c r="G52">
+        <v>0.0394164347937324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1682663274089649</v>
+        <v>-0.1619502758790702</v>
       </c>
       <c r="C53">
-        <v>0.01476285793200947</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01176824443224345</v>
+      </c>
+      <c r="D53">
+        <v>-0.07435097330207935</v>
+      </c>
+      <c r="E53">
+        <v>-0.1239014181610687</v>
+      </c>
+      <c r="F53">
+        <v>-0.1400943245801417</v>
+      </c>
+      <c r="G53">
+        <v>0.0364461908965641</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01104040536005063</v>
+        <v>-0.01339536497016789</v>
       </c>
       <c r="C54">
-        <v>-0.0419052736056186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.04183178886108785</v>
+      </c>
+      <c r="D54">
+        <v>-0.0192525980448189</v>
+      </c>
+      <c r="E54">
+        <v>0.0356774509073958</v>
+      </c>
+      <c r="F54">
+        <v>-0.007439101016093612</v>
+      </c>
+      <c r="G54">
+        <v>-0.001180228652480318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1224639318637735</v>
+        <v>-0.1202795822399167</v>
       </c>
       <c r="C55">
-        <v>-0.01517577558318976</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01757914240955001</v>
+      </c>
+      <c r="D55">
+        <v>-0.05577592024767775</v>
+      </c>
+      <c r="E55">
+        <v>-0.0555680285756003</v>
+      </c>
+      <c r="F55">
+        <v>-0.148671226331777</v>
+      </c>
+      <c r="G55">
+        <v>0.05323437978158062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1803371966719993</v>
+        <v>-0.1751185360603758</v>
       </c>
       <c r="C56">
-        <v>0.009568055815292617</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.009919220195428385</v>
+      </c>
+      <c r="D56">
+        <v>-0.02374715873332643</v>
+      </c>
+      <c r="E56">
+        <v>-0.1544929439745409</v>
+      </c>
+      <c r="F56">
+        <v>-0.143368642524808</v>
+      </c>
+      <c r="G56">
+        <v>0.01885097482555644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04195338099044913</v>
+        <v>-0.04105504067175846</v>
       </c>
       <c r="C58">
-        <v>-0.09685089362549483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1078165829976507</v>
+      </c>
+      <c r="D58">
+        <v>0.002865026611530411</v>
+      </c>
+      <c r="E58">
+        <v>0.03815926816069646</v>
+      </c>
+      <c r="F58">
+        <v>-0.02198961920443457</v>
+      </c>
+      <c r="G58">
+        <v>0.004786746787861069</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1838470697873322</v>
+        <v>-0.1911161265687879</v>
       </c>
       <c r="C59">
-        <v>0.1605789898983967</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1696121291279063</v>
+      </c>
+      <c r="D59">
+        <v>0.08393896249279281</v>
+      </c>
+      <c r="E59">
+        <v>0.07728398699163204</v>
+      </c>
+      <c r="F59">
+        <v>-0.01524997753699542</v>
+      </c>
+      <c r="G59">
+        <v>-0.03665119143073432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2084979427634381</v>
+        <v>-0.2067046430162568</v>
       </c>
       <c r="C60">
-        <v>0.003333997079765515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.001588813957973763</v>
+      </c>
+      <c r="D60">
+        <v>0.0687859413900628</v>
+      </c>
+      <c r="E60">
+        <v>-0.1408350736086399</v>
+      </c>
+      <c r="F60">
+        <v>-0.04443838984561242</v>
+      </c>
+      <c r="G60">
+        <v>-0.117908040706615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06131045871922505</v>
+        <v>-0.05922879713742989</v>
       </c>
       <c r="C61">
-        <v>-0.1316862180585674</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1290191231209009</v>
+      </c>
+      <c r="D61">
+        <v>-0.02445640600410885</v>
+      </c>
+      <c r="E61">
+        <v>0.07366208714522643</v>
+      </c>
+      <c r="F61">
+        <v>-0.006930140228753102</v>
+      </c>
+      <c r="G61">
+        <v>-0.01950637891980121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1700146772114217</v>
+        <v>-0.1663880547885674</v>
       </c>
       <c r="C62">
-        <v>0.004766061770728339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004656231239991183</v>
+      </c>
+      <c r="D62">
+        <v>-0.02622381529822928</v>
+      </c>
+      <c r="E62">
+        <v>-0.1341061794653301</v>
+      </c>
+      <c r="F62">
+        <v>-0.1301879170220897</v>
+      </c>
+      <c r="G62">
+        <v>0.02696714893129097</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.0405785323466876</v>
+        <v>-0.04340710432821065</v>
       </c>
       <c r="C63">
-        <v>-0.08092173676456517</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08389429636480486</v>
+      </c>
+      <c r="D63">
+        <v>-0.01730258950505665</v>
+      </c>
+      <c r="E63">
+        <v>0.03986155372999637</v>
+      </c>
+      <c r="F63">
+        <v>0.01887218193317394</v>
+      </c>
+      <c r="G63">
+        <v>0.02332867602498783</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1132526892029635</v>
+        <v>-0.1105298703000349</v>
       </c>
       <c r="C64">
-        <v>-0.06276240206503812</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.06511585058048831</v>
+      </c>
+      <c r="D64">
+        <v>-0.02709446138275908</v>
+      </c>
+      <c r="E64">
+        <v>-0.05347116904188256</v>
+      </c>
+      <c r="F64">
+        <v>-0.01060085597787014</v>
+      </c>
+      <c r="G64">
+        <v>-0.01917381625540227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1614135093160355</v>
+        <v>-0.1634370990556238</v>
       </c>
       <c r="C65">
-        <v>0.06077929961654342</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04837247394322384</v>
+      </c>
+      <c r="D65">
+        <v>-0.07240918370970817</v>
+      </c>
+      <c r="E65">
+        <v>-0.005768346060482002</v>
+      </c>
+      <c r="F65">
+        <v>-0.04372920707577281</v>
+      </c>
+      <c r="G65">
+        <v>0.02119048698029399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09620504581608195</v>
+        <v>-0.09149351618431636</v>
       </c>
       <c r="C66">
-        <v>-0.1318986055512045</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1311977016839896</v>
+      </c>
+      <c r="D66">
+        <v>-0.02429727363676907</v>
+      </c>
+      <c r="E66">
+        <v>0.09811182264011324</v>
+      </c>
+      <c r="F66">
+        <v>0.01544041838233787</v>
+      </c>
+      <c r="G66">
+        <v>0.006046333571641029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05060157052459498</v>
+        <v>-0.04404430736658676</v>
       </c>
       <c r="C67">
-        <v>-0.08495478426181563</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.07762934843425691</v>
+      </c>
+      <c r="D67">
+        <v>0.07036259694966912</v>
+      </c>
+      <c r="E67">
+        <v>-0.0321642350322539</v>
+      </c>
+      <c r="F67">
+        <v>-0.04737999140561373</v>
+      </c>
+      <c r="G67">
+        <v>0.05681793545212175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1451865898763237</v>
+        <v>-0.1466911514858763</v>
       </c>
       <c r="C68">
-        <v>0.2450252446210805</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2440736412227724</v>
+      </c>
+      <c r="D68">
+        <v>-0.002768389849439272</v>
+      </c>
+      <c r="E68">
+        <v>0.1483763094240008</v>
+      </c>
+      <c r="F68">
+        <v>0.06392109429158789</v>
+      </c>
+      <c r="G68">
+        <v>-0.06490643989122075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04015795923919719</v>
+        <v>-0.03846277850862589</v>
       </c>
       <c r="C69">
-        <v>-0.01501444897075959</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01772059044101357</v>
+      </c>
+      <c r="D69">
+        <v>0.01035714097928074</v>
+      </c>
+      <c r="E69">
+        <v>-0.0550022777168445</v>
+      </c>
+      <c r="F69">
+        <v>-0.03718721968497206</v>
+      </c>
+      <c r="G69">
+        <v>0.0609207673634492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07500661113855689</v>
+        <v>-0.07289589759506461</v>
       </c>
       <c r="C70">
-        <v>-0.09706058294262894</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09712397425907633</v>
+      </c>
+      <c r="D70">
+        <v>0.5496606792991948</v>
+      </c>
+      <c r="E70">
+        <v>-0.1878206540811888</v>
+      </c>
+      <c r="F70">
+        <v>-0.2504761770697695</v>
+      </c>
+      <c r="G70">
+        <v>-0.5077750889985706</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1695962759934253</v>
+        <v>-0.1720496659752171</v>
       </c>
       <c r="C71">
-        <v>0.25003608409756</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2488502438880285</v>
+      </c>
+      <c r="D71">
+        <v>0.005136348500804672</v>
+      </c>
+      <c r="E71">
+        <v>0.1530122244428971</v>
+      </c>
+      <c r="F71">
+        <v>0.07390462953866901</v>
+      </c>
+      <c r="G71">
+        <v>-0.07582555265905169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1455298809232913</v>
+        <v>-0.150176211245363</v>
       </c>
       <c r="C72">
-        <v>-0.008339534712538406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.007372107928308848</v>
+      </c>
+      <c r="D72">
+        <v>-0.0422201249928686</v>
+      </c>
+      <c r="E72">
+        <v>-0.03731878716851967</v>
+      </c>
+      <c r="F72">
+        <v>-0.06900107670006146</v>
+      </c>
+      <c r="G72">
+        <v>0.085151028373414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1876201283755687</v>
+        <v>-0.1965023028342869</v>
       </c>
       <c r="C73">
-        <v>-0.01568165853517236</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.02174953278597621</v>
+      </c>
+      <c r="D73">
+        <v>-0.02579795688394431</v>
+      </c>
+      <c r="E73">
+        <v>-0.09542653109425656</v>
+      </c>
+      <c r="F73">
+        <v>-0.03576147159885861</v>
+      </c>
+      <c r="G73">
+        <v>0.03741863611792029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08728008223068887</v>
+        <v>-0.08623279856977539</v>
       </c>
       <c r="C74">
-        <v>-0.004338886583092197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01102413734519907</v>
+      </c>
+      <c r="D74">
+        <v>-0.06714557529518149</v>
+      </c>
+      <c r="E74">
+        <v>-0.09079189183440453</v>
+      </c>
+      <c r="F74">
+        <v>-0.05058149799347573</v>
+      </c>
+      <c r="G74">
+        <v>0.03252625073063507</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1219461950826287</v>
+        <v>-0.1146037531808018</v>
       </c>
       <c r="C75">
-        <v>-0.02502268572838363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02569242352926253</v>
+      </c>
+      <c r="D75">
+        <v>-0.02308064694625895</v>
+      </c>
+      <c r="E75">
+        <v>-0.085530807521978</v>
+      </c>
+      <c r="F75">
+        <v>-0.1190391462399421</v>
+      </c>
+      <c r="G75">
+        <v>0.07117425823043394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08014097341369059</v>
+        <v>-0.08896249368594185</v>
       </c>
       <c r="C77">
-        <v>-0.118709518238746</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1227300742850169</v>
+      </c>
+      <c r="D77">
+        <v>-0.08153335552857845</v>
+      </c>
+      <c r="E77">
+        <v>0.1073742957420566</v>
+      </c>
+      <c r="F77">
+        <v>-0.0569672430826508</v>
+      </c>
+      <c r="G77">
+        <v>-0.1273815922413581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.07617027320698287</v>
+        <v>-0.08313583953567645</v>
       </c>
       <c r="C78">
-        <v>-0.1268202448390737</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1276643433597</v>
+      </c>
+      <c r="D78">
+        <v>-0.05986919428707898</v>
+      </c>
+      <c r="E78">
+        <v>0.1069672292376643</v>
+      </c>
+      <c r="F78">
+        <v>-0.08338868577095031</v>
+      </c>
+      <c r="G78">
+        <v>-0.001906245122766947</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1685491266313582</v>
+        <v>-0.1640851011246749</v>
       </c>
       <c r="C79">
-        <v>-0.0216932831215458</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02086532933699869</v>
+      </c>
+      <c r="D79">
+        <v>-0.0140178228914409</v>
+      </c>
+      <c r="E79">
+        <v>-0.06982002308861852</v>
+      </c>
+      <c r="F79">
+        <v>-0.1043145404584195</v>
+      </c>
+      <c r="G79">
+        <v>0.04785598428483918</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07743924173775156</v>
+        <v>-0.07395757063888514</v>
       </c>
       <c r="C80">
-        <v>-0.08527558147317259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0800940237511584</v>
+      </c>
+      <c r="D80">
+        <v>0.002540587322438421</v>
+      </c>
+      <c r="E80">
+        <v>0.05803710289541975</v>
+      </c>
+      <c r="F80">
+        <v>0.07830624256615755</v>
+      </c>
+      <c r="G80">
+        <v>0.03764723498357346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1128095153570666</v>
+        <v>-0.1062863052886856</v>
       </c>
       <c r="C81">
-        <v>0.01239088204043621</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01186062509804134</v>
+      </c>
+      <c r="D81">
+        <v>0.003753593796826874</v>
+      </c>
+      <c r="E81">
+        <v>-0.0994360443912385</v>
+      </c>
+      <c r="F81">
+        <v>-0.09978009761883837</v>
+      </c>
+      <c r="G81">
+        <v>0.1015056140292725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.162787610826544</v>
+        <v>-0.1578157056692269</v>
       </c>
       <c r="C82">
-        <v>0.01658459226877389</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0133851793823229</v>
+      </c>
+      <c r="D82">
+        <v>-0.07939599749127654</v>
+      </c>
+      <c r="E82">
+        <v>-0.1439101783461976</v>
+      </c>
+      <c r="F82">
+        <v>-0.05894934158630177</v>
+      </c>
+      <c r="G82">
+        <v>0.0481418847855051</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05303878520461784</v>
+        <v>-0.04930807518646241</v>
       </c>
       <c r="C83">
-        <v>-0.06352816360620646</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.05846656850250329</v>
+      </c>
+      <c r="D83">
+        <v>0.02875134540931181</v>
+      </c>
+      <c r="E83">
+        <v>0.00719864373133591</v>
+      </c>
+      <c r="F83">
+        <v>0.002033147864346709</v>
+      </c>
+      <c r="G83">
+        <v>-0.01618202712573819</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04564472804888338</v>
+        <v>-0.04492027055974033</v>
       </c>
       <c r="C84">
-        <v>-0.07552606983122587</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07311368800585498</v>
+      </c>
+      <c r="D84">
+        <v>0.01986641890045184</v>
+      </c>
+      <c r="E84">
+        <v>-0.009808884948521042</v>
+      </c>
+      <c r="F84">
+        <v>-0.02376620537013393</v>
+      </c>
+      <c r="G84">
+        <v>-0.01833762779907197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1402429027153329</v>
+        <v>-0.1353754482775187</v>
       </c>
       <c r="C85">
-        <v>-0.00688375195070126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.007927716616640988</v>
+      </c>
+      <c r="D85">
+        <v>-0.08007875957011773</v>
+      </c>
+      <c r="E85">
+        <v>-0.06600867265284295</v>
+      </c>
+      <c r="F85">
+        <v>-0.09860783576063928</v>
+      </c>
+      <c r="G85">
+        <v>0.05931599776800024</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.07698421854652845</v>
+        <v>-0.07798760727927978</v>
       </c>
       <c r="C86">
-        <v>-0.1666548318585984</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1690897790914422</v>
+      </c>
+      <c r="D86">
+        <v>0.5878427235729856</v>
+      </c>
+      <c r="E86">
+        <v>0.4668578368316432</v>
+      </c>
+      <c r="F86">
+        <v>-0.06312357767498493</v>
+      </c>
+      <c r="G86">
+        <v>0.4773501497252474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09114079923244964</v>
+        <v>-0.08619164955992566</v>
       </c>
       <c r="C87">
-        <v>-0.1048544131446811</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1030702502781818</v>
+      </c>
+      <c r="D87">
+        <v>-0.1195057512165621</v>
+      </c>
+      <c r="E87">
+        <v>0.09138199609715934</v>
+      </c>
+      <c r="F87">
+        <v>0.1645577714843061</v>
+      </c>
+      <c r="G87">
+        <v>-0.1373698006497795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05946319972605051</v>
+        <v>-0.05897307840697483</v>
       </c>
       <c r="C88">
-        <v>-0.06395627002237271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06394939522807096</v>
+      </c>
+      <c r="D88">
+        <v>-0.008367788528998447</v>
+      </c>
+      <c r="E88">
+        <v>-0.03119109325799888</v>
+      </c>
+      <c r="F88">
+        <v>-0.0273378462942949</v>
+      </c>
+      <c r="G88">
+        <v>0.002991218194219512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1545574981281255</v>
+        <v>-0.1533432417089733</v>
       </c>
       <c r="C89">
-        <v>0.1959081222020422</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2028431027273806</v>
+      </c>
+      <c r="D89">
+        <v>-0.007091675778468456</v>
+      </c>
+      <c r="E89">
+        <v>0.1032657086353853</v>
+      </c>
+      <c r="F89">
+        <v>0.06308244046576675</v>
+      </c>
+      <c r="G89">
+        <v>-0.0379594768601134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.186656404430756</v>
+        <v>-0.1898123521150907</v>
       </c>
       <c r="C90">
-        <v>0.2263547380611454</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2292493556212475</v>
+      </c>
+      <c r="D90">
+        <v>0.007135037583525091</v>
+      </c>
+      <c r="E90">
+        <v>0.1811496439469487</v>
+      </c>
+      <c r="F90">
+        <v>0.119367814627813</v>
+      </c>
+      <c r="G90">
+        <v>-0.08258116609215785</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1257682468450396</v>
+        <v>-0.119401845247977</v>
       </c>
       <c r="C91">
-        <v>0.01976157674291761</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01845280399014123</v>
+      </c>
+      <c r="D91">
+        <v>0.02913075348254608</v>
+      </c>
+      <c r="E91">
+        <v>-0.1259630271598465</v>
+      </c>
+      <c r="F91">
+        <v>-0.1092133352694326</v>
+      </c>
+      <c r="G91">
+        <v>0.1210741186589047</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.177503736815304</v>
+        <v>-0.1785456551838207</v>
       </c>
       <c r="C92">
-        <v>0.255576479665027</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.266307587326941</v>
+      </c>
+      <c r="D92">
+        <v>0.005479312802265972</v>
+      </c>
+      <c r="E92">
+        <v>0.2131468699339091</v>
+      </c>
+      <c r="F92">
+        <v>0.03217678747335968</v>
+      </c>
+      <c r="G92">
+        <v>-0.0608790874574457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1804173347964071</v>
+        <v>-0.1874617414909788</v>
       </c>
       <c r="C93">
-        <v>0.2204053525404719</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2227487048479938</v>
+      </c>
+      <c r="D93">
+        <v>0.01086609763065392</v>
+      </c>
+      <c r="E93">
+        <v>0.1179569531535207</v>
+      </c>
+      <c r="F93">
+        <v>-0.005036760448756756</v>
+      </c>
+      <c r="G93">
+        <v>-0.05542300124383667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1194313929233214</v>
+        <v>-0.1138710821480281</v>
       </c>
       <c r="C94">
-        <v>-0.03271185145845736</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03255602182770689</v>
+      </c>
+      <c r="D94">
+        <v>-0.02013687763447749</v>
+      </c>
+      <c r="E94">
+        <v>-0.07509495529141944</v>
+      </c>
+      <c r="F94">
+        <v>-0.1135801776761092</v>
+      </c>
+      <c r="G94">
+        <v>0.0706643842017224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1189777567306775</v>
+        <v>-0.118406714257815</v>
       </c>
       <c r="C95">
-        <v>-0.1081811397594207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.118393499831208</v>
+      </c>
+      <c r="D95">
+        <v>-0.001434231035058068</v>
+      </c>
+      <c r="E95">
+        <v>0.07968083075830626</v>
+      </c>
+      <c r="F95">
+        <v>-0.003648718137792502</v>
+      </c>
+      <c r="G95">
+        <v>-0.002604944858799416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1161939323151282</v>
+        <v>-0.114577642732722</v>
       </c>
       <c r="C96">
-        <v>-0.1214186144633373</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1251918727532879</v>
+      </c>
+      <c r="D96">
+        <v>0.02773739719509029</v>
+      </c>
+      <c r="E96">
+        <v>-0.02778252168417988</v>
+      </c>
+      <c r="F96">
+        <v>-0.03613834288570587</v>
+      </c>
+      <c r="G96">
+        <v>-0.1291577250165659</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.199314964727924</v>
+        <v>-0.202836131464084</v>
       </c>
       <c r="C97">
-        <v>-0.01528442698886376</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.007578667270952506</v>
+      </c>
+      <c r="D97">
+        <v>0.2099192326936819</v>
+      </c>
+      <c r="E97">
+        <v>-0.4389512685963606</v>
+      </c>
+      <c r="F97">
+        <v>0.630755702339057</v>
+      </c>
+      <c r="G97">
+        <v>0.3488065167064519</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1963540273876907</v>
+        <v>-0.203491018483325</v>
       </c>
       <c r="C98">
-        <v>-0.02202265574589483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02531070651381895</v>
+      </c>
+      <c r="D98">
+        <v>0.07643167041880315</v>
+      </c>
+      <c r="E98">
+        <v>-0.06780624272332454</v>
+      </c>
+      <c r="F98">
+        <v>0.09011842261384785</v>
+      </c>
+      <c r="G98">
+        <v>-0.1328255928024194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.04823472509998485</v>
+        <v>-0.04883456038504417</v>
       </c>
       <c r="C99">
-        <v>-0.06427805907717697</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06301533830281755</v>
+      </c>
+      <c r="D99">
+        <v>-0.003267158462871872</v>
+      </c>
+      <c r="E99">
+        <v>0.02473862800114227</v>
+      </c>
+      <c r="F99">
+        <v>0.03265903765864374</v>
+      </c>
+      <c r="G99">
+        <v>-0.01282669207115228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09849510884938674</v>
+        <v>-0.09488785129348548</v>
       </c>
       <c r="C100">
-        <v>-0.3209716060768286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.3051089145391135</v>
+      </c>
+      <c r="D100">
+        <v>0.1242138600106231</v>
+      </c>
+      <c r="E100">
+        <v>0.03012489528989367</v>
+      </c>
+      <c r="F100">
+        <v>0.4603266716346994</v>
+      </c>
+      <c r="G100">
+        <v>-0.3682800350552949</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02488353576155965</v>
+        <v>-0.02688737914354039</v>
       </c>
       <c r="C101">
-        <v>-0.05536701935977975</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05384898403640905</v>
+      </c>
+      <c r="D101">
+        <v>-0.006670961403414498</v>
+      </c>
+      <c r="E101">
+        <v>0.06444551406213089</v>
+      </c>
+      <c r="F101">
+        <v>-0.00243913141886864</v>
+      </c>
+      <c r="G101">
+        <v>0.01031418418924995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
